--- a/WebContent/assets/MovieBook.xlsx
+++ b/WebContent/assets/MovieBook.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hstockdill\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0E00E-1877-4ED4-8466-AFB711AFEA35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6755D74E-7F55-49CF-A995-B4D253031425}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8010" windowHeight="8160" xr2:uid="{96CA4CE8-313D-4361-9DFD-F99C2583AF1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="5310" xr2:uid="{96CA4CE8-313D-4361-9DFD-F99C2583AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Chappie</t>
   </si>
   <si>
-    <t>Niel Blomkamp</t>
-  </si>
-  <si>
     <t>Full Metal Jacket</t>
   </si>
   <si>
@@ -45,32 +38,91 @@
     <t>Martin Scorsese</t>
   </si>
   <si>
-    <t>title/80016588</t>
-  </si>
-  <si>
-    <t>title/528677</t>
-  </si>
-  <si>
-    <t>title/70002022</t>
-  </si>
-  <si>
-    <t>poster/8718283/s276/chappie</t>
-  </si>
-  <si>
-    <t>poster/8726853/s276/la-chaqueta-metalica</t>
-  </si>
-  <si>
-    <t>poster/8712030/s276/goodfellas</t>
+    <t>Neill Blomkamp</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/title/528677</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/8718283/s276/chappie</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/8726853/s276/la-chaqueta-metalica</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/8712030/s276/goodfellas</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Jeunet</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/8732929/s592/amelie</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/title/60022048</t>
+  </si>
+  <si>
+    <t>City of God</t>
+  </si>
+  <si>
+    <t>Kátia Lund, Fernando Meirelles</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/8707430/s592/city-of-god</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/title/60026106</t>
+  </si>
+  <si>
+    <t>Restrepo</t>
+  </si>
+  <si>
+    <t>Tim Hetherington, Sebastian Junger</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/11220586/s592/restrepo</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/us/movie/restrepo/id401494704</t>
+  </si>
+  <si>
+    <t>Korengal</t>
+  </si>
+  <si>
+    <t>Sebastian Junger</t>
+  </si>
+  <si>
+    <t>https://images.justwatch.com/poster/11310674/s592/korengal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pn7OZuILL4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B00ZRES1NC</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/us/movie/goodfellas-remastered-feature/id975726791</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +145,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,66 +467,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F4410-AE57-4694-A6B6-C808A6D034DB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>116</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{4BE8ED34-5EF9-4301-B957-72EEEAA45F43}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{D70BFDED-4484-4266-85BA-2E40BBC172EF}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{EFF3B080-030F-4892-B8D2-3ADC50A5CF88}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{6E8C9D28-F4BB-44CA-AD0F-BB2950AEE4CD}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{23900CD9-0AC1-432F-86E5-0D7DD1966A51}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{016C34B1-FC7B-4290-ADB2-7E15B12500A8}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{B3E8AB8E-799D-4CCB-9715-904C33EB4642}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{6BDBF513-2AAB-4CC8-A946-DF9A1684C762}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{9F762304-1831-4A0A-8E48-E572FECAFD78}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{DF4A78BF-CA3A-4B22-AF2F-F839A1F816A5}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{DF1EB994-097D-44A5-9444-9577FBEE6C83}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{7E4068D2-B263-4BC6-9F16-1126BC081732}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{9B002AE1-B1EE-47C2-BA02-A7693ACDCAD2}"/>
+    <hyperlink ref="E7" r:id="rId14" xr:uid="{88AE01D7-767F-4B2F-8C85-462E56C08844}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>